--- a/src/test/resources/Run_Manager_Revoke_Contract.xlsx
+++ b/src/test/resources/Run_Manager_Revoke_Contract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Finalized Run Managers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4C800-C2A0-4B28-8A1D-7D48558BD6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF2DEC-C826-4B03-B124-03A0FD30D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="953">
   <si>
     <t>P_Key</t>
   </si>
@@ -6565,17 +6565,9 @@
     <t>Automation1111</t>
   </si>
   <si>
-    <t>Unexpected behavior 
-Defect id: NET1-1378</t>
-  </si>
-  <si>
     <t>2024-04-01</t>
   </si>
   <si>
-    <t>Unexpected behavior 
-Defect id: NET1-1379</t>
-  </si>
-  <si>
     <t>Lessor Approve Residential Contract more than 3 months</t>
   </si>
   <si>
@@ -6891,122 +6883,6 @@
     <t>Submit a request to revoke the contract with all the payment already settled from Tenant</t>
   </si>
   <si>
-    <r>
-      <t>Verify the lesor is able to navigate to Contracts (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>العقود</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)  page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Verify the lessor is able to navigate to  (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> المالية </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">)  page </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Verify new invoice has same </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>"التاريخ المحدد للدفع"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> entered by the lessor in Financial Settlement</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Verify old invoice has status </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>" مغلقة "</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Verify new invoice has status </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>"  لم يتم الدفع "</t>
-    </r>
-  </si>
-  <si>
     <t>Precondition</t>
   </si>
   <si>
@@ -7025,164 +6901,431 @@
     <t>Module 6</t>
   </si>
   <si>
-    <t>WEB_TC_01</t>
-  </si>
-  <si>
-    <t>WEB_TC_02</t>
-  </si>
-  <si>
-    <t>WEB_TC_03</t>
-  </si>
-  <si>
-    <t>WEB_TC_04</t>
-  </si>
-  <si>
-    <t>WEB_TC_05</t>
-  </si>
-  <si>
-    <t>WEB_TC_06</t>
-  </si>
-  <si>
-    <t>WEB_TC_07</t>
-  </si>
-  <si>
-    <t>WEB_TC_08</t>
-  </si>
-  <si>
-    <t>WEB_TC_09</t>
-  </si>
-  <si>
-    <t>WEB_TC_10</t>
-  </si>
-  <si>
-    <t>WEB_TC_11</t>
-  </si>
-  <si>
-    <t>WEB_TC_12</t>
-  </si>
-  <si>
-    <t>WEB_TC_13</t>
-  </si>
-  <si>
-    <t>WEB_TC_14</t>
-  </si>
-  <si>
-    <t>WEB_TC_15</t>
-  </si>
-  <si>
-    <t>WEB_TC_16</t>
-  </si>
-  <si>
-    <t>WEB_TC_17</t>
-  </si>
-  <si>
-    <t>WEB_TC_18</t>
-  </si>
-  <si>
-    <t>WEB_TC_19</t>
-  </si>
-  <si>
-    <t>WEB_TC_20</t>
-  </si>
-  <si>
-    <t>WEB_TC_21</t>
-  </si>
-  <si>
-    <t>WEB_TC_22</t>
-  </si>
-  <si>
-    <t>WEB_TC_23</t>
-  </si>
-  <si>
-    <t>WEB_TC_24</t>
-  </si>
-  <si>
-    <t>WEB_TC_25</t>
-  </si>
-  <si>
-    <t>WEB_TC_26</t>
-  </si>
-  <si>
-    <t>WEB_TC_27</t>
-  </si>
-  <si>
-    <t>WEB_TC_28</t>
-  </si>
-  <si>
-    <t>WEB_TC_29</t>
-  </si>
-  <si>
-    <t>WEB_TC_30</t>
-  </si>
-  <si>
-    <t>WEB_TC_31</t>
-  </si>
-  <si>
-    <t>WEB_TC_32</t>
-  </si>
-  <si>
-    <t>WEB_TC_33</t>
-  </si>
-  <si>
-    <t>WEB_TC_34</t>
-  </si>
-  <si>
-    <t>WEB_TC_35</t>
-  </si>
-  <si>
-    <t>WEB_TC_36</t>
-  </si>
-  <si>
-    <t>WEB_TC_37</t>
-  </si>
-  <si>
-    <t>WEB_TC_38</t>
-  </si>
-  <si>
-    <t>WEB_TC_39</t>
-  </si>
-  <si>
     <t>AwqafResidentialSubleaseContractLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_40</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByLesserLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_41</t>
-  </si>
-  <si>
     <t>ApproveAwqafResidentialSubleaseByTenantLessThan3Months</t>
   </si>
   <si>
-    <t>WEB_TC_42</t>
-  </si>
-  <si>
-    <t>WEB_TC_43</t>
-  </si>
-  <si>
-    <t>WEB_TC_44</t>
-  </si>
-  <si>
-    <t>WEB_TC_45</t>
-  </si>
-  <si>
-    <t>WEB_TC_46</t>
-  </si>
-  <si>
-    <t>WEB_TC_47</t>
-  </si>
-  <si>
-    <t>WEB_TC_48</t>
+    <t>Contracts_TC_01</t>
+  </si>
+  <si>
+    <t>Contracts_TC_02</t>
+  </si>
+  <si>
+    <t>Contracts_TC_03</t>
+  </si>
+  <si>
+    <t>Contracts_TC_04</t>
+  </si>
+  <si>
+    <t>Contracts_TC_05</t>
+  </si>
+  <si>
+    <t>Contracts_TC_06</t>
+  </si>
+  <si>
+    <t>Contracts_TC_07</t>
+  </si>
+  <si>
+    <t>Contracts_TC_08</t>
+  </si>
+  <si>
+    <t>Contracts_TC_09</t>
+  </si>
+  <si>
+    <t>Contracts_TC_10</t>
+  </si>
+  <si>
+    <t>Contracts_TC_11</t>
+  </si>
+  <si>
+    <t>Contracts_TC_12</t>
+  </si>
+  <si>
+    <t>Contracts_TC_13</t>
+  </si>
+  <si>
+    <t>Contracts_TC_14</t>
+  </si>
+  <si>
+    <t>Contracts_TC_15</t>
+  </si>
+  <si>
+    <t>Contracts_TC_16</t>
+  </si>
+  <si>
+    <t>Contracts_TC_17</t>
+  </si>
+  <si>
+    <t>Contracts_TC_18</t>
+  </si>
+  <si>
+    <t>Contracts_TC_19</t>
+  </si>
+  <si>
+    <t>Contracts_TC_20</t>
+  </si>
+  <si>
+    <t>Contracts_TC_21</t>
+  </si>
+  <si>
+    <t>Contracts_TC_22</t>
+  </si>
+  <si>
+    <t>Contracts_TC_23</t>
+  </si>
+  <si>
+    <t>Contracts_TC_24</t>
+  </si>
+  <si>
+    <t>Contracts_TC_25</t>
+  </si>
+  <si>
+    <t>Contracts_TC_26</t>
+  </si>
+  <si>
+    <t>Contracts_TC_27</t>
+  </si>
+  <si>
+    <t>Contracts_TC_28</t>
+  </si>
+  <si>
+    <t>Contracts_TC_29</t>
+  </si>
+  <si>
+    <t>Contracts_TC_30</t>
+  </si>
+  <si>
+    <t>Contracts_TC_31</t>
+  </si>
+  <si>
+    <t>Contracts_TC_32</t>
+  </si>
+  <si>
+    <t>Contracts_TC_33</t>
+  </si>
+  <si>
+    <t>Contracts_TC_34</t>
+  </si>
+  <si>
+    <t>Contracts_TC_35</t>
+  </si>
+  <si>
+    <t>Contracts_TC_36</t>
+  </si>
+  <si>
+    <t>Contracts_TC_37</t>
+  </si>
+  <si>
+    <t>Contracts_TC_38</t>
+  </si>
+  <si>
+    <t>Contracts_TC_39</t>
+  </si>
+  <si>
+    <t>Contracts_TC_40</t>
+  </si>
+  <si>
+    <t>Contracts_TC_41</t>
+  </si>
+  <si>
+    <t>Contracts_TC_42</t>
+  </si>
+  <si>
+    <t>Contracts_TC_43</t>
+  </si>
+  <si>
+    <t>Contracts_TC_44</t>
+  </si>
+  <si>
+    <t>Contracts_TC_45</t>
+  </si>
+  <si>
+    <t>Contracts_TC_46</t>
+  </si>
+  <si>
+    <t>Contracts_TC_47</t>
+  </si>
+  <si>
+    <t>Contracts_TC_48</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_01</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_02</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_03</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_04</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_05</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_06</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_07</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_08</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_09</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_10</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_11</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_12</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_13</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_14</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_15</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_16</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_17</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_18</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_19</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_20</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_21</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_22</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_23</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_24</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_25</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_26</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_27</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_28</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_29</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_30</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_31</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_32</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_33</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_34</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_35</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_36</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_37</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_38</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_39</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_40</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_41</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_42</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_43</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_44</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_45</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_46</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_47</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_48</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_49</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_50</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_51</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_52</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_53</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_54</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_55</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_56</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_57</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_58</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_59</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_60</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_61</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_62</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_63</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_64</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_65</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_66</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_67</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_68</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_69</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_70</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_71</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_72</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_73</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_74</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_75</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_76</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_77</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_78</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_79</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_80</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_81</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_82</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_83</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_84</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_85</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_86</t>
+  </si>
+  <si>
+    <t>RevokeContract_TC_87</t>
+  </si>
+  <si>
+    <t>Defect id: NET1-1378</t>
+  </si>
+  <si>
+    <t>Defect id: NET1-1379</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -7303,17 +7446,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="26">
@@ -7534,7 +7666,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -7676,9 +7808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8209,11 +8338,11 @@
   <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="E89" sqref="E52:E89"/>
+      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8224,7 +8353,7 @@
     <col min="4" max="4" width="73" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="13.21875" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -8277,7 +8406,7 @@
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>649</v>
@@ -8324,7 +8453,7 @@
         <v>651</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>246</v>
@@ -8354,7 +8483,7 @@
         <v>280</v>
       </c>
       <c r="D4" s="47" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E4" s="47" t="s">
         <v>678</v>
@@ -8363,7 +8492,7 @@
         <v>680</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>246</v>
@@ -8393,7 +8522,7 @@
         <v>281</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E5" s="47" t="s">
         <v>679</v>
@@ -8402,7 +8531,7 @@
         <v>681</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>246</v>
@@ -8441,7 +8570,7 @@
         <v>651</v>
       </c>
       <c r="G6" s="47" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>246</v>
@@ -8471,7 +8600,7 @@
         <v>280</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>683</v>
@@ -8480,7 +8609,7 @@
         <v>680</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>246</v>
@@ -8510,7 +8639,7 @@
         <v>281</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>682</v>
@@ -8519,7 +8648,7 @@
         <v>681</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>246</v>
@@ -8552,13 +8681,13 @@
         <v>663</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>246</v>
@@ -8588,16 +8717,16 @@
         <v>280</v>
       </c>
       <c r="D10" s="47" t="s">
+        <v>712</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>713</v>
+      </c>
+      <c r="F10" s="47" t="s">
         <v>714</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>715</v>
-      </c>
-      <c r="F10" s="47" t="s">
-        <v>716</v>
-      </c>
       <c r="G10" s="47" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>246</v>
@@ -8627,16 +8756,16 @@
         <v>281</v>
       </c>
       <c r="D11" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>716</v>
+      </c>
+      <c r="F11" s="47" t="s">
         <v>717</v>
       </c>
-      <c r="E11" s="47" t="s">
-        <v>718</v>
-      </c>
-      <c r="F11" s="47" t="s">
-        <v>719</v>
-      </c>
       <c r="G11" s="47" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="H11" s="38" t="s">
         <v>246</v>
@@ -8669,13 +8798,13 @@
         <v>670</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G12" s="47" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>246</v>
@@ -8705,16 +8834,16 @@
         <v>280</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H13" s="38" t="s">
         <v>246</v>
@@ -8744,16 +8873,16 @@
         <v>281</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>246</v>
@@ -8786,13 +8915,13 @@
         <v>664</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>246</v>
@@ -8822,16 +8951,16 @@
         <v>280</v>
       </c>
       <c r="D16" s="47" t="s">
+        <v>725</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>726</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>727</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>728</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>729</v>
-      </c>
       <c r="G16" s="47" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H16" s="38" t="s">
         <v>246</v>
@@ -8861,16 +8990,16 @@
         <v>281</v>
       </c>
       <c r="D17" s="47" t="s">
+        <v>728</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>729</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>730</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>731</v>
-      </c>
-      <c r="F17" s="47" t="s">
-        <v>732</v>
-      </c>
       <c r="G17" s="47" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="H17" s="38" t="s">
         <v>246</v>
@@ -8903,13 +9032,13 @@
         <v>665</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="H18" s="38" t="s">
         <v>246</v>
@@ -8939,16 +9068,16 @@
         <v>280</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H19" s="38" t="s">
         <v>246</v>
@@ -8978,16 +9107,16 @@
         <v>281</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G20" s="47" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="H20" s="38" t="s">
         <v>246</v>
@@ -9020,13 +9149,13 @@
         <v>666</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H21" s="38" t="s">
         <v>246</v>
@@ -9056,16 +9185,16 @@
         <v>280</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H22" s="38" t="s">
         <v>246</v>
@@ -9095,16 +9224,16 @@
         <v>281</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>246</v>
@@ -9137,13 +9266,13 @@
         <v>669</v>
       </c>
       <c r="E24" s="47" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="H24" s="38" t="s">
         <v>246</v>
@@ -9173,16 +9302,16 @@
         <v>280</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E25" s="47" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H25" s="38" t="s">
         <v>246</v>
@@ -9212,16 +9341,16 @@
         <v>281</v>
       </c>
       <c r="D26" s="47" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E26" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H26" s="38" t="s">
         <v>246</v>
@@ -9254,13 +9383,13 @@
         <v>667</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="H27" s="38" t="s">
         <v>246</v>
@@ -9290,16 +9419,16 @@
         <v>280</v>
       </c>
       <c r="D28" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>749</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>750</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>751</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>752</v>
-      </c>
       <c r="G28" s="47" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="H28" s="38" t="s">
         <v>246</v>
@@ -9329,16 +9458,16 @@
         <v>281</v>
       </c>
       <c r="D29" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="F29" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="E29" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>755</v>
-      </c>
       <c r="G29" s="47" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="H29" s="38" t="s">
         <v>246</v>
@@ -9371,13 +9500,13 @@
         <v>668</v>
       </c>
       <c r="E30" s="47" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F30" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="H30" s="38" t="s">
         <v>246</v>
@@ -9407,16 +9536,16 @@
         <v>280</v>
       </c>
       <c r="D31" s="47" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E31" s="47" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F31" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G31" s="47" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H31" s="38" t="s">
         <v>246</v>
@@ -9446,16 +9575,16 @@
         <v>281</v>
       </c>
       <c r="D32" s="47" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E32" s="47" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="H32" s="38" t="s">
         <v>246</v>
@@ -9488,13 +9617,13 @@
         <v>671</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F33" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="H33" s="38" t="s">
         <v>246</v>
@@ -9524,16 +9653,16 @@
         <v>280</v>
       </c>
       <c r="D34" s="47" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F34" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="H34" s="38" t="s">
         <v>246</v>
@@ -9563,16 +9692,16 @@
         <v>281</v>
       </c>
       <c r="D35" s="47" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E35" s="47" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="H35" s="38" t="s">
         <v>246</v>
@@ -9605,13 +9734,13 @@
         <v>672</v>
       </c>
       <c r="E36" s="47" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G36" s="47" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="H36" s="38" t="s">
         <v>246</v>
@@ -9641,16 +9770,16 @@
         <v>280</v>
       </c>
       <c r="D37" s="47" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E37" s="47" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G37" s="47" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="H37" s="38" t="s">
         <v>246</v>
@@ -9680,16 +9809,16 @@
         <v>281</v>
       </c>
       <c r="D38" s="47" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F38" s="47" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G38" s="47" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="H38" s="38" t="s">
         <v>246</v>
@@ -9722,13 +9851,13 @@
         <v>673</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G39" s="47" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>246</v>
@@ -9758,16 +9887,16 @@
         <v>280</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E40" s="47" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G40" s="47" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="H40" s="38" t="s">
         <v>246</v>
@@ -9797,16 +9926,16 @@
         <v>281</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E41" s="47" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F41" s="47" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G41" s="47" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="H41" s="38" t="s">
         <v>246</v>
@@ -9839,13 +9968,13 @@
         <v>674</v>
       </c>
       <c r="E42" s="47" t="s">
-        <v>859</v>
+        <v>813</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>246</v>
@@ -9875,16 +10004,16 @@
         <v>280</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>861</v>
+        <v>814</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>246</v>
@@ -9914,16 +10043,16 @@
         <v>281</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E44" s="47" t="s">
-        <v>863</v>
+        <v>815</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G44" s="47" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>246</v>
@@ -9956,13 +10085,13 @@
         <v>675</v>
       </c>
       <c r="E45" s="47" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F45" s="47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G45" s="47" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>246</v>
@@ -9992,16 +10121,16 @@
         <v>280</v>
       </c>
       <c r="D46" s="47" t="s">
+        <v>775</v>
+      </c>
+      <c r="E46" s="47" t="s">
+        <v>776</v>
+      </c>
+      <c r="F46" s="47" t="s">
         <v>777</v>
       </c>
-      <c r="E46" s="47" t="s">
-        <v>778</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>779</v>
-      </c>
       <c r="G46" s="47" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>246</v>
@@ -10031,16 +10160,16 @@
         <v>281</v>
       </c>
       <c r="D47" s="47" t="s">
+        <v>778</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>779</v>
+      </c>
+      <c r="F47" s="47" t="s">
         <v>780</v>
       </c>
-      <c r="E47" s="47" t="s">
-        <v>781</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>782</v>
-      </c>
       <c r="G47" s="47" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>246</v>
@@ -10073,13 +10202,13 @@
         <v>676</v>
       </c>
       <c r="E48" s="47" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G48" s="47" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>246</v>
@@ -10109,16 +10238,16 @@
         <v>280</v>
       </c>
       <c r="D49" s="47" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E49" s="47" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F49" s="47" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G49" s="47" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>246</v>
@@ -10148,16 +10277,16 @@
         <v>281</v>
       </c>
       <c r="D50" s="47" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E50" s="47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F50" s="47" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G50" s="47" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>246</v>
@@ -10184,7 +10313,7 @@
         <v>283</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="51" t="s">
@@ -10212,7 +10341,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>284</v>
@@ -10226,8 +10355,8 @@
       <c r="F52" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G52" s="40" t="s">
-        <v>809</v>
+      <c r="G52" s="47" t="s">
+        <v>864</v>
       </c>
       <c r="H52" s="38" t="s">
         <v>246</v>
@@ -10251,7 +10380,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C53" s="40" t="s">
         <v>285</v>
@@ -10265,8 +10394,8 @@
       <c r="F53" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>285</v>
+      <c r="G53" s="47" t="s">
+        <v>865</v>
       </c>
       <c r="H53" s="38" t="s">
         <v>246</v>
@@ -10290,7 +10419,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C54" s="40" t="s">
         <v>286</v>
@@ -10304,8 +10433,8 @@
       <c r="F54" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G54" s="40" t="s">
-        <v>286</v>
+      <c r="G54" s="47" t="s">
+        <v>866</v>
       </c>
       <c r="H54" s="38" t="s">
         <v>246</v>
@@ -10329,7 +10458,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C55" s="40" t="s">
         <v>287</v>
@@ -10343,8 +10472,8 @@
       <c r="F55" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G55" s="40" t="s">
-        <v>287</v>
+      <c r="G55" s="47" t="s">
+        <v>867</v>
       </c>
       <c r="H55" s="38" t="s">
         <v>246</v>
@@ -10368,7 +10497,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C56" s="40" t="s">
         <v>288</v>
@@ -10382,8 +10511,8 @@
       <c r="F56" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G56" s="40" t="s">
-        <v>288</v>
+      <c r="G56" s="47" t="s">
+        <v>868</v>
       </c>
       <c r="H56" s="38" t="s">
         <v>246</v>
@@ -10407,7 +10536,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C57" s="40" t="s">
         <v>289</v>
@@ -10421,8 +10550,8 @@
       <c r="F57" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G57" s="40" t="s">
-        <v>289</v>
+      <c r="G57" s="47" t="s">
+        <v>869</v>
       </c>
       <c r="H57" s="38" t="s">
         <v>246</v>
@@ -10446,7 +10575,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C58" s="53" t="s">
         <v>647</v>
@@ -10460,8 +10589,8 @@
       <c r="F58" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G58" s="53" t="s">
-        <v>647</v>
+      <c r="G58" s="47" t="s">
+        <v>870</v>
       </c>
       <c r="H58" s="38" t="s">
         <v>246</v>
@@ -10479,7 +10608,7 @@
         <v>55</v>
       </c>
       <c r="M58" s="60" t="s">
-        <v>705</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10487,7 +10616,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C59" s="40" t="s">
         <v>290</v>
@@ -10501,8 +10630,8 @@
       <c r="F59" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G59" s="40" t="s">
-        <v>290</v>
+      <c r="G59" s="47" t="s">
+        <v>871</v>
       </c>
       <c r="H59" s="38" t="s">
         <v>246</v>
@@ -10526,7 +10655,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>291</v>
@@ -10540,8 +10669,8 @@
       <c r="F60" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G60" s="40" t="s">
-        <v>291</v>
+      <c r="G60" s="47" t="s">
+        <v>872</v>
       </c>
       <c r="H60" s="38" t="s">
         <v>246</v>
@@ -10565,7 +10694,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C61" s="40" t="s">
         <v>292</v>
@@ -10579,8 +10708,8 @@
       <c r="F61" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G61" s="40" t="s">
-        <v>292</v>
+      <c r="G61" s="47" t="s">
+        <v>873</v>
       </c>
       <c r="H61" s="38" t="s">
         <v>246</v>
@@ -10604,7 +10733,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C62" s="40" t="s">
         <v>293</v>
@@ -10618,8 +10747,8 @@
       <c r="F62" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G62" s="40" t="s">
-        <v>293</v>
+      <c r="G62" s="47" t="s">
+        <v>874</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>246</v>
@@ -10643,7 +10772,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C63" s="40" t="s">
         <v>294</v>
@@ -10657,8 +10786,8 @@
       <c r="F63" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G63" s="40" t="s">
-        <v>294</v>
+      <c r="G63" s="47" t="s">
+        <v>875</v>
       </c>
       <c r="H63" s="38" t="s">
         <v>246</v>
@@ -10682,7 +10811,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C64" s="40" t="s">
         <v>295</v>
@@ -10696,8 +10825,8 @@
       <c r="F64" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G64" s="40" t="s">
-        <v>295</v>
+      <c r="G64" s="47" t="s">
+        <v>876</v>
       </c>
       <c r="H64" s="38" t="s">
         <v>246</v>
@@ -10721,7 +10850,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C65" s="40" t="s">
         <v>296</v>
@@ -10735,8 +10864,8 @@
       <c r="F65" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G65" s="40" t="s">
-        <v>296</v>
+      <c r="G65" s="47" t="s">
+        <v>877</v>
       </c>
       <c r="H65" s="38" t="s">
         <v>246</v>
@@ -10760,7 +10889,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C66" s="40" t="s">
         <v>297</v>
@@ -10774,8 +10903,8 @@
       <c r="F66" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G66" s="40" t="s">
-        <v>297</v>
+      <c r="G66" s="47" t="s">
+        <v>878</v>
       </c>
       <c r="H66" s="38" t="s">
         <v>246</v>
@@ -10799,7 +10928,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C67" s="40" t="s">
         <v>298</v>
@@ -10813,8 +10942,8 @@
       <c r="F67" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G67" s="40" t="s">
-        <v>298</v>
+      <c r="G67" s="47" t="s">
+        <v>879</v>
       </c>
       <c r="H67" s="38" t="s">
         <v>246</v>
@@ -10838,7 +10967,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C68" s="53" t="s">
         <v>299</v>
@@ -10852,8 +10981,8 @@
       <c r="F68" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G68" s="53" t="s">
-        <v>299</v>
+      <c r="G68" s="47" t="s">
+        <v>880</v>
       </c>
       <c r="H68" s="38" t="s">
         <v>246</v>
@@ -10871,7 +11000,7 @@
         <v>65</v>
       </c>
       <c r="M68" s="60" t="s">
-        <v>707</v>
+        <v>952</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10879,7 +11008,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C69" s="40" t="s">
         <v>300</v>
@@ -10893,8 +11022,8 @@
       <c r="F69" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G69" s="40" t="s">
-        <v>300</v>
+      <c r="G69" s="47" t="s">
+        <v>881</v>
       </c>
       <c r="H69" s="38" t="s">
         <v>246</v>
@@ -10918,7 +11047,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>301</v>
@@ -10932,8 +11061,8 @@
       <c r="F70" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G70" s="40" t="s">
-        <v>301</v>
+      <c r="G70" s="47" t="s">
+        <v>882</v>
       </c>
       <c r="H70" s="38" t="s">
         <v>246</v>
@@ -10957,7 +11086,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C71" s="40" t="s">
         <v>302</v>
@@ -10971,8 +11100,8 @@
       <c r="F71" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G71" s="40" t="s">
-        <v>302</v>
+      <c r="G71" s="47" t="s">
+        <v>883</v>
       </c>
       <c r="H71" s="38" t="s">
         <v>246</v>
@@ -10996,7 +11125,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C72" s="40" t="s">
         <v>303</v>
@@ -11010,8 +11139,8 @@
       <c r="F72" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G72" s="40" t="s">
-        <v>303</v>
+      <c r="G72" s="47" t="s">
+        <v>884</v>
       </c>
       <c r="H72" s="38" t="s">
         <v>246</v>
@@ -11035,7 +11164,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C73" s="40" t="s">
         <v>304</v>
@@ -11049,8 +11178,8 @@
       <c r="F73" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G73" s="40" t="s">
-        <v>304</v>
+      <c r="G73" s="47" t="s">
+        <v>885</v>
       </c>
       <c r="H73" s="38" t="s">
         <v>246</v>
@@ -11074,7 +11203,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C74" s="40" t="s">
         <v>305</v>
@@ -11088,8 +11217,8 @@
       <c r="F74" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G74" s="40" t="s">
-        <v>305</v>
+      <c r="G74" s="47" t="s">
+        <v>886</v>
       </c>
       <c r="H74" s="38" t="s">
         <v>246</v>
@@ -11113,7 +11242,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>306</v>
@@ -11127,8 +11256,8 @@
       <c r="F75" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G75" s="40" t="s">
-        <v>306</v>
+      <c r="G75" s="47" t="s">
+        <v>887</v>
       </c>
       <c r="H75" s="38" t="s">
         <v>246</v>
@@ -11152,7 +11281,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>307</v>
@@ -11166,8 +11295,8 @@
       <c r="F76" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G76" s="40" t="s">
-        <v>307</v>
+      <c r="G76" s="47" t="s">
+        <v>888</v>
       </c>
       <c r="H76" s="38" t="s">
         <v>246</v>
@@ -11191,7 +11320,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>308</v>
@@ -11205,8 +11334,8 @@
       <c r="F77" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G77" s="40" t="s">
-        <v>308</v>
+      <c r="G77" s="47" t="s">
+        <v>889</v>
       </c>
       <c r="H77" s="38" t="s">
         <v>246</v>
@@ -11230,7 +11359,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>309</v>
@@ -11244,8 +11373,8 @@
       <c r="F78" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G78" s="40" t="s">
-        <v>309</v>
+      <c r="G78" s="47" t="s">
+        <v>890</v>
       </c>
       <c r="H78" s="38" t="s">
         <v>246</v>
@@ -11269,7 +11398,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>310</v>
@@ -11283,8 +11412,8 @@
       <c r="F79" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G79" s="40" t="s">
-        <v>310</v>
+      <c r="G79" s="47" t="s">
+        <v>891</v>
       </c>
       <c r="H79" s="38" t="s">
         <v>246</v>
@@ -11308,7 +11437,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>311</v>
@@ -11322,8 +11451,8 @@
       <c r="F80" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G80" s="40" t="s">
-        <v>311</v>
+      <c r="G80" s="47" t="s">
+        <v>892</v>
       </c>
       <c r="H80" s="38" t="s">
         <v>246</v>
@@ -11347,7 +11476,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>312</v>
@@ -11361,8 +11490,8 @@
       <c r="F81" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G81" s="40" t="s">
-        <v>312</v>
+      <c r="G81" s="47" t="s">
+        <v>893</v>
       </c>
       <c r="H81" s="38" t="s">
         <v>246</v>
@@ -11386,7 +11515,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>313</v>
@@ -11400,8 +11529,8 @@
       <c r="F82" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G82" s="40" t="s">
-        <v>313</v>
+      <c r="G82" s="47" t="s">
+        <v>894</v>
       </c>
       <c r="H82" s="38" t="s">
         <v>246</v>
@@ -11425,7 +11554,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>314</v>
@@ -11439,8 +11568,8 @@
       <c r="F83" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G83" s="40" t="s">
-        <v>314</v>
+      <c r="G83" s="47" t="s">
+        <v>895</v>
       </c>
       <c r="H83" s="38" t="s">
         <v>246</v>
@@ -11464,7 +11593,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C84" s="40" t="s">
         <v>315</v>
@@ -11478,8 +11607,8 @@
       <c r="F84" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G84" s="40" t="s">
-        <v>315</v>
+      <c r="G84" s="47" t="s">
+        <v>896</v>
       </c>
       <c r="H84" s="38" t="s">
         <v>246</v>
@@ -11503,7 +11632,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C85" s="40" t="s">
         <v>316</v>
@@ -11517,8 +11646,8 @@
       <c r="F85" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G85" s="40" t="s">
-        <v>316</v>
+      <c r="G85" s="47" t="s">
+        <v>897</v>
       </c>
       <c r="H85" s="38" t="s">
         <v>246</v>
@@ -11542,7 +11671,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C86" s="40" t="s">
         <v>317</v>
@@ -11556,8 +11685,8 @@
       <c r="F86" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G86" s="40" t="s">
-        <v>317</v>
+      <c r="G86" s="47" t="s">
+        <v>898</v>
       </c>
       <c r="H86" s="38" t="s">
         <v>246</v>
@@ -11581,7 +11710,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C87" s="40" t="s">
         <v>318</v>
@@ -11595,8 +11724,8 @@
       <c r="F87" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="G87" s="40" t="s">
-        <v>318</v>
+      <c r="G87" s="47" t="s">
+        <v>899</v>
       </c>
       <c r="H87" s="38" t="s">
         <v>246</v>
@@ -11620,13 +11749,13 @@
         <v>85</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E88" s="47" t="s">
         <v>458</v>
@@ -11634,8 +11763,8 @@
       <c r="F88" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="G88" s="40" t="s">
-        <v>807</v>
+      <c r="G88" s="47" t="s">
+        <v>900</v>
       </c>
       <c r="H88" s="38" t="s">
         <v>246</v>
@@ -11659,7 +11788,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>460</v>
@@ -11673,8 +11802,8 @@
       <c r="F89" s="47" t="s">
         <v>459</v>
       </c>
-      <c r="G89" s="40" t="s">
-        <v>460</v>
+      <c r="G89" s="47" t="s">
+        <v>901</v>
       </c>
       <c r="H89" s="38" t="s">
         <v>246</v>
@@ -11695,7 +11824,7 @@
     </row>
     <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="49" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B90" s="50" t="s">
         <v>283</v>
@@ -11743,8 +11872,8 @@
       <c r="F91" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G91" s="40" t="s">
-        <v>323</v>
+      <c r="G91" s="47" t="s">
+        <v>902</v>
       </c>
       <c r="H91" s="38" t="s">
         <v>246</v>
@@ -11782,8 +11911,8 @@
       <c r="F92" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G92" s="40" t="s">
-        <v>324</v>
+      <c r="G92" s="47" t="s">
+        <v>903</v>
       </c>
       <c r="H92" s="38" t="s">
         <v>246</v>
@@ -11821,8 +11950,8 @@
       <c r="F93" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G93" s="53" t="s">
-        <v>325</v>
+      <c r="G93" s="47" t="s">
+        <v>904</v>
       </c>
       <c r="H93" s="38" t="s">
         <v>246</v>
@@ -11860,8 +11989,8 @@
       <c r="F94" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G94" s="40" t="s">
-        <v>326</v>
+      <c r="G94" s="47" t="s">
+        <v>905</v>
       </c>
       <c r="H94" s="38" t="s">
         <v>246</v>
@@ -11899,8 +12028,8 @@
       <c r="F95" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G95" s="40" t="s">
-        <v>327</v>
+      <c r="G95" s="47" t="s">
+        <v>906</v>
       </c>
       <c r="H95" s="38" t="s">
         <v>246</v>
@@ -11938,8 +12067,8 @@
       <c r="F96" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G96" s="40" t="s">
-        <v>328</v>
+      <c r="G96" s="47" t="s">
+        <v>907</v>
       </c>
       <c r="H96" s="38" t="s">
         <v>246</v>
@@ -11977,8 +12106,8 @@
       <c r="F97" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G97" s="40" t="s">
-        <v>329</v>
+      <c r="G97" s="47" t="s">
+        <v>908</v>
       </c>
       <c r="H97" s="38" t="s">
         <v>246</v>
@@ -12016,8 +12145,8 @@
       <c r="F98" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G98" s="40" t="s">
-        <v>330</v>
+      <c r="G98" s="47" t="s">
+        <v>909</v>
       </c>
       <c r="H98" s="38" t="s">
         <v>246</v>
@@ -12055,8 +12184,8 @@
       <c r="F99" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G99" s="40" t="s">
-        <v>331</v>
+      <c r="G99" s="47" t="s">
+        <v>910</v>
       </c>
       <c r="H99" s="38" t="s">
         <v>246</v>
@@ -12094,8 +12223,8 @@
       <c r="F100" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G100" s="40" t="s">
-        <v>332</v>
+      <c r="G100" s="47" t="s">
+        <v>911</v>
       </c>
       <c r="H100" s="38" t="s">
         <v>246</v>
@@ -12133,8 +12262,8 @@
       <c r="F101" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G101" s="40" t="s">
-        <v>333</v>
+      <c r="G101" s="47" t="s">
+        <v>912</v>
       </c>
       <c r="H101" s="38" t="s">
         <v>246</v>
@@ -12172,8 +12301,8 @@
       <c r="F102" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G102" s="40" t="s">
-        <v>475</v>
+      <c r="G102" s="47" t="s">
+        <v>913</v>
       </c>
       <c r="H102" s="38" t="s">
         <v>246</v>
@@ -12211,8 +12340,8 @@
       <c r="F103" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G103" s="40" t="s">
-        <v>334</v>
+      <c r="G103" s="47" t="s">
+        <v>914</v>
       </c>
       <c r="H103" s="38" t="s">
         <v>246</v>
@@ -12250,8 +12379,8 @@
       <c r="F104" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G104" s="53" t="s">
-        <v>335</v>
+      <c r="G104" s="47" t="s">
+        <v>915</v>
       </c>
       <c r="H104" s="38" t="s">
         <v>246</v>
@@ -12289,8 +12418,8 @@
       <c r="F105" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G105" s="40" t="s">
-        <v>336</v>
+      <c r="G105" s="47" t="s">
+        <v>916</v>
       </c>
       <c r="H105" s="38" t="s">
         <v>246</v>
@@ -12328,8 +12457,8 @@
       <c r="F106" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G106" s="40" t="s">
-        <v>337</v>
+      <c r="G106" s="47" t="s">
+        <v>917</v>
       </c>
       <c r="H106" s="38" t="s">
         <v>246</v>
@@ -12367,8 +12496,8 @@
       <c r="F107" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G107" s="40" t="s">
-        <v>338</v>
+      <c r="G107" s="47" t="s">
+        <v>918</v>
       </c>
       <c r="H107" s="38" t="s">
         <v>246</v>
@@ -12406,8 +12535,8 @@
       <c r="F108" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G108" s="40" t="s">
-        <v>339</v>
+      <c r="G108" s="47" t="s">
+        <v>919</v>
       </c>
       <c r="H108" s="38" t="s">
         <v>246</v>
@@ -12428,7 +12557,7 @@
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="49" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B109" s="50" t="s">
         <v>283</v>
@@ -12476,8 +12605,8 @@
       <c r="F110" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G110" s="40" t="s">
-        <v>341</v>
+      <c r="G110" s="47" t="s">
+        <v>920</v>
       </c>
       <c r="H110" s="38" t="s">
         <v>246</v>
@@ -12515,8 +12644,8 @@
       <c r="F111" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G111" s="40" t="s">
-        <v>342</v>
+      <c r="G111" s="47" t="s">
+        <v>921</v>
       </c>
       <c r="H111" s="38" t="s">
         <v>246</v>
@@ -12554,8 +12683,8 @@
       <c r="F112" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G112" s="40" t="s">
-        <v>343</v>
+      <c r="G112" s="47" t="s">
+        <v>922</v>
       </c>
       <c r="H112" s="38" t="s">
         <v>246</v>
@@ -12593,8 +12722,8 @@
       <c r="F113" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G113" s="40" t="s">
-        <v>344</v>
+      <c r="G113" s="47" t="s">
+        <v>923</v>
       </c>
       <c r="H113" s="38" t="s">
         <v>246</v>
@@ -12632,8 +12761,8 @@
       <c r="F114" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G114" s="40" t="s">
-        <v>345</v>
+      <c r="G114" s="47" t="s">
+        <v>924</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>246</v>
@@ -12671,8 +12800,8 @@
       <c r="F115" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G115" s="40" t="s">
-        <v>346</v>
+      <c r="G115" s="47" t="s">
+        <v>925</v>
       </c>
       <c r="H115" s="38" t="s">
         <v>246</v>
@@ -12710,8 +12839,8 @@
       <c r="F116" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G116" s="40" t="s">
-        <v>347</v>
+      <c r="G116" s="47" t="s">
+        <v>926</v>
       </c>
       <c r="H116" s="38" t="s">
         <v>246</v>
@@ -12749,8 +12878,8 @@
       <c r="F117" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G117" s="40" t="s">
-        <v>348</v>
+      <c r="G117" s="47" t="s">
+        <v>927</v>
       </c>
       <c r="H117" s="38" t="s">
         <v>246</v>
@@ -12788,8 +12917,8 @@
       <c r="F118" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G118" s="40" t="s">
-        <v>349</v>
+      <c r="G118" s="47" t="s">
+        <v>928</v>
       </c>
       <c r="H118" s="38" t="s">
         <v>246</v>
@@ -12827,8 +12956,8 @@
       <c r="F119" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G119" s="40" t="s">
-        <v>350</v>
+      <c r="G119" s="47" t="s">
+        <v>929</v>
       </c>
       <c r="H119" s="38" t="s">
         <v>246</v>
@@ -12849,7 +12978,7 @@
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="49" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B120" s="50" t="s">
         <v>283</v>
@@ -12897,8 +13026,8 @@
       <c r="F121" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G121" s="54" t="s">
-        <v>496</v>
+      <c r="G121" s="47" t="s">
+        <v>930</v>
       </c>
       <c r="H121" s="38" t="s">
         <v>246</v>
@@ -12936,8 +13065,8 @@
       <c r="F122" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G122" s="40" t="s">
-        <v>352</v>
+      <c r="G122" s="47" t="s">
+        <v>931</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>246</v>
@@ -12975,8 +13104,8 @@
       <c r="F123" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G123" s="40" t="s">
-        <v>353</v>
+      <c r="G123" s="47" t="s">
+        <v>932</v>
       </c>
       <c r="H123" s="38" t="s">
         <v>246</v>
@@ -13014,8 +13143,8 @@
       <c r="F124" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G124" s="40" t="s">
-        <v>354</v>
+      <c r="G124" s="47" t="s">
+        <v>933</v>
       </c>
       <c r="H124" s="38" t="s">
         <v>246</v>
@@ -13053,8 +13182,8 @@
       <c r="F125" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G125" s="40" t="s">
-        <v>355</v>
+      <c r="G125" s="47" t="s">
+        <v>934</v>
       </c>
       <c r="H125" s="38" t="s">
         <v>246</v>
@@ -13092,8 +13221,8 @@
       <c r="F126" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G126" s="40" t="s">
-        <v>356</v>
+      <c r="G126" s="47" t="s">
+        <v>935</v>
       </c>
       <c r="H126" s="38" t="s">
         <v>246</v>
@@ -13131,8 +13260,8 @@
       <c r="F127" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G127" s="55" t="s">
-        <v>357</v>
+      <c r="G127" s="47" t="s">
+        <v>936</v>
       </c>
       <c r="H127" s="38" t="s">
         <v>246</v>
@@ -13170,8 +13299,8 @@
       <c r="F128" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G128" s="55" t="s">
-        <v>358</v>
+      <c r="G128" s="47" t="s">
+        <v>937</v>
       </c>
       <c r="H128" s="38" t="s">
         <v>246</v>
@@ -13209,8 +13338,8 @@
       <c r="F129" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G129" s="40" t="s">
-        <v>359</v>
+      <c r="G129" s="47" t="s">
+        <v>938</v>
       </c>
       <c r="H129" s="38" t="s">
         <v>246</v>
@@ -13248,8 +13377,8 @@
       <c r="F130" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G130" s="40" t="s">
-        <v>360</v>
+      <c r="G130" s="47" t="s">
+        <v>939</v>
       </c>
       <c r="H130" s="38" t="s">
         <v>246</v>
@@ -13287,8 +13416,8 @@
       <c r="F131" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G131" s="40" t="s">
-        <v>361</v>
+      <c r="G131" s="47" t="s">
+        <v>940</v>
       </c>
       <c r="H131" s="38" t="s">
         <v>246</v>
@@ -13326,8 +13455,8 @@
       <c r="F132" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G132" s="40" t="s">
-        <v>362</v>
+      <c r="G132" s="47" t="s">
+        <v>941</v>
       </c>
       <c r="H132" s="38" t="s">
         <v>246</v>
@@ -13365,8 +13494,8 @@
       <c r="F133" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G133" s="40" t="s">
-        <v>363</v>
+      <c r="G133" s="47" t="s">
+        <v>942</v>
       </c>
       <c r="H133" s="38" t="s">
         <v>246</v>
@@ -13404,8 +13533,8 @@
       <c r="F134" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="G134" s="40" t="s">
-        <v>511</v>
+      <c r="G134" s="47" t="s">
+        <v>943</v>
       </c>
       <c r="H134" s="38" t="s">
         <v>246</v>
@@ -13426,7 +13555,7 @@
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="49" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B135" s="50" t="s">
         <v>283</v>
@@ -13474,8 +13603,8 @@
       <c r="F136" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="G136" s="40" t="s">
-        <v>514</v>
+      <c r="G136" s="47" t="s">
+        <v>944</v>
       </c>
       <c r="H136" s="38" t="s">
         <v>246</v>
@@ -13496,7 +13625,7 @@
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="49" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B137" s="50" t="s">
         <v>283</v>
@@ -13544,8 +13673,8 @@
       <c r="F138" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G138" s="69" t="s">
-        <v>810</v>
+      <c r="G138" s="47" t="s">
+        <v>945</v>
       </c>
       <c r="H138" s="38" t="s">
         <v>246</v>
@@ -13583,8 +13712,8 @@
       <c r="F139" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G139" s="69" t="s">
-        <v>366</v>
+      <c r="G139" s="47" t="s">
+        <v>946</v>
       </c>
       <c r="H139" s="38" t="s">
         <v>246</v>
@@ -13622,8 +13751,8 @@
       <c r="F140" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G140" s="69" t="s">
-        <v>367</v>
+      <c r="G140" s="47" t="s">
+        <v>947</v>
       </c>
       <c r="H140" s="38" t="s">
         <v>246</v>
@@ -13661,8 +13790,8 @@
       <c r="F141" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G141" s="69" t="s">
-        <v>811</v>
+      <c r="G141" s="47" t="s">
+        <v>948</v>
       </c>
       <c r="H141" s="38" t="s">
         <v>246</v>
@@ -13700,8 +13829,8 @@
       <c r="F142" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G142" s="69" t="s">
-        <v>812</v>
+      <c r="G142" s="47" t="s">
+        <v>949</v>
       </c>
       <c r="H142" s="38" t="s">
         <v>246</v>
@@ -13739,8 +13868,8 @@
       <c r="F143" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="G143" s="69" t="s">
-        <v>813</v>
+      <c r="G143" s="47" t="s">
+        <v>950</v>
       </c>
       <c r="H143" s="38" t="s">
         <v>246</v>
@@ -13875,21 +14004,21 @@
         <v>253</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>245</v>
@@ -13910,7 +14039,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>245</v>
@@ -13931,23 +14060,23 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="68" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -13991,7 +14120,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>245</v>
@@ -14008,7 +14137,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>245</v>
@@ -14064,7 +14193,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>245</v>
@@ -14081,7 +14210,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>245</v>
@@ -14098,13 +14227,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>245</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>32</v>
@@ -14156,16 +14285,16 @@
         <v>253</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>789</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>790</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -14206,16 +14335,16 @@
         <v>254</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -14486,7 +14615,7 @@
         <v>547</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>28</v>
@@ -14759,7 +14888,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -14774,7 +14903,7 @@
         <v>547</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>688</v>
@@ -14797,7 +14926,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>32</v>
@@ -14912,7 +15041,7 @@
         <v>245</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>32</v>
@@ -14927,7 +15056,7 @@
         <v>605</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>688</v>
@@ -16982,20 +17111,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="71"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A44" s="12">
@@ -20413,7 +20542,7 @@
         <v>529</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>115</v>
@@ -20451,7 +20580,7 @@
         <v>529</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>115</v>
@@ -20513,7 +20642,7 @@
         <v>529</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>115</v>
@@ -20551,7 +20680,7 @@
         <v>529</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>115</v>

--- a/src/test/resources/Run_Manager_Revoke_Contract.xlsx
+++ b/src/test/resources/Run_Manager_Revoke_Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\EjarUAT\EJAR_UAT\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FF2DEC-C826-4B03-B124-03A0FD30D973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F1D996-044B-4F24-A8E0-6A63F62D1D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="954">
   <si>
     <t>P_Key</t>
   </si>
@@ -7319,6 +7319,9 @@
   </si>
   <si>
     <t>Defect id: NET1-1379</t>
+  </si>
+  <si>
+    <t>Regression</t>
   </si>
 </sst>
 </file>
@@ -8338,11 +8341,11 @@
   <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="M61" sqref="M61"/>
+      <selection pane="bottomRight" activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10362,7 +10365,7 @@
         <v>246</v>
       </c>
       <c r="I52" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J52" s="48" t="s">
         <v>28</v>
@@ -10401,7 +10404,7 @@
         <v>246</v>
       </c>
       <c r="I53" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J53" s="48" t="s">
         <v>28</v>
@@ -10440,7 +10443,7 @@
         <v>246</v>
       </c>
       <c r="I54" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J54" s="48" t="s">
         <v>28</v>
@@ -10479,7 +10482,7 @@
         <v>246</v>
       </c>
       <c r="I55" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J55" s="48" t="s">
         <v>28</v>
@@ -10518,7 +10521,7 @@
         <v>246</v>
       </c>
       <c r="I56" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J56" s="48" t="s">
         <v>28</v>
@@ -10557,7 +10560,7 @@
         <v>246</v>
       </c>
       <c r="I57" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J57" s="48" t="s">
         <v>28</v>
@@ -10596,7 +10599,7 @@
         <v>246</v>
       </c>
       <c r="I58" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J58" s="48" t="s">
         <v>28</v>
@@ -10637,7 +10640,7 @@
         <v>246</v>
       </c>
       <c r="I59" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J59" s="48" t="s">
         <v>28</v>
@@ -10676,7 +10679,7 @@
         <v>246</v>
       </c>
       <c r="I60" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J60" s="48" t="s">
         <v>28</v>
@@ -10715,7 +10718,7 @@
         <v>246</v>
       </c>
       <c r="I61" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J61" s="48" t="s">
         <v>28</v>
@@ -10754,7 +10757,7 @@
         <v>246</v>
       </c>
       <c r="I62" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J62" s="48" t="s">
         <v>28</v>
@@ -10793,7 +10796,7 @@
         <v>246</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J63" s="48" t="s">
         <v>28</v>
@@ -10832,7 +10835,7 @@
         <v>246</v>
       </c>
       <c r="I64" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J64" s="48" t="s">
         <v>28</v>
@@ -10871,7 +10874,7 @@
         <v>246</v>
       </c>
       <c r="I65" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J65" s="48" t="s">
         <v>28</v>
@@ -10910,7 +10913,7 @@
         <v>246</v>
       </c>
       <c r="I66" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J66" s="48" t="s">
         <v>28</v>
@@ -10949,7 +10952,7 @@
         <v>246</v>
       </c>
       <c r="I67" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J67" s="48" t="s">
         <v>28</v>
@@ -10988,7 +10991,7 @@
         <v>246</v>
       </c>
       <c r="I68" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J68" s="48" t="s">
         <v>28</v>
@@ -11029,7 +11032,7 @@
         <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J69" s="48" t="s">
         <v>28</v>
@@ -11068,7 +11071,7 @@
         <v>246</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J70" s="48" t="s">
         <v>28</v>
@@ -11107,7 +11110,7 @@
         <v>246</v>
       </c>
       <c r="I71" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J71" s="48" t="s">
         <v>28</v>
@@ -11146,7 +11149,7 @@
         <v>246</v>
       </c>
       <c r="I72" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J72" s="48" t="s">
         <v>28</v>
@@ -11185,7 +11188,7 @@
         <v>246</v>
       </c>
       <c r="I73" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J73" s="48" t="s">
         <v>28</v>
@@ -11224,7 +11227,7 @@
         <v>246</v>
       </c>
       <c r="I74" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J74" s="48" t="s">
         <v>28</v>
@@ -11263,7 +11266,7 @@
         <v>246</v>
       </c>
       <c r="I75" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J75" s="48" t="s">
         <v>28</v>
@@ -11302,7 +11305,7 @@
         <v>246</v>
       </c>
       <c r="I76" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J76" s="48" t="s">
         <v>28</v>
@@ -11341,7 +11344,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J77" s="48" t="s">
         <v>28</v>
@@ -11380,7 +11383,7 @@
         <v>246</v>
       </c>
       <c r="I78" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J78" s="48" t="s">
         <v>28</v>
@@ -11419,7 +11422,7 @@
         <v>246</v>
       </c>
       <c r="I79" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J79" s="48" t="s">
         <v>28</v>
@@ -11458,7 +11461,7 @@
         <v>246</v>
       </c>
       <c r="I80" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J80" s="48" t="s">
         <v>28</v>
@@ -11497,7 +11500,7 @@
         <v>246</v>
       </c>
       <c r="I81" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J81" s="48" t="s">
         <v>28</v>
@@ -11536,7 +11539,7 @@
         <v>246</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J82" s="48" t="s">
         <v>28</v>
@@ -11575,7 +11578,7 @@
         <v>246</v>
       </c>
       <c r="I83" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J83" s="48" t="s">
         <v>28</v>
@@ -11614,7 +11617,7 @@
         <v>246</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J84" s="48" t="s">
         <v>28</v>
@@ -11653,7 +11656,7 @@
         <v>246</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J85" s="48" t="s">
         <v>28</v>
@@ -11692,7 +11695,7 @@
         <v>246</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J86" s="48" t="s">
         <v>28</v>
@@ -11731,7 +11734,7 @@
         <v>246</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J87" s="48" t="s">
         <v>28</v>
@@ -11770,7 +11773,7 @@
         <v>246</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J88" s="48" t="s">
         <v>28</v>
@@ -11809,7 +11812,7 @@
         <v>246</v>
       </c>
       <c r="I89" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J89" s="48" t="s">
         <v>28</v>
@@ -11879,7 +11882,7 @@
         <v>246</v>
       </c>
       <c r="I91" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J91" s="48" t="s">
         <v>28</v>
@@ -11918,7 +11921,7 @@
         <v>246</v>
       </c>
       <c r="I92" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J92" s="48" t="s">
         <v>28</v>
@@ -11957,7 +11960,7 @@
         <v>246</v>
       </c>
       <c r="I93" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J93" s="48" t="s">
         <v>28</v>
@@ -11996,7 +11999,7 @@
         <v>246</v>
       </c>
       <c r="I94" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J94" s="48" t="s">
         <v>28</v>
@@ -12035,7 +12038,7 @@
         <v>246</v>
       </c>
       <c r="I95" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J95" s="48" t="s">
         <v>28</v>
@@ -12074,7 +12077,7 @@
         <v>246</v>
       </c>
       <c r="I96" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J96" s="48" t="s">
         <v>28</v>
@@ -12113,7 +12116,7 @@
         <v>246</v>
       </c>
       <c r="I97" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J97" s="48" t="s">
         <v>28</v>
@@ -12152,7 +12155,7 @@
         <v>246</v>
       </c>
       <c r="I98" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J98" s="48" t="s">
         <v>28</v>
@@ -12191,7 +12194,7 @@
         <v>246</v>
       </c>
       <c r="I99" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J99" s="48" t="s">
         <v>28</v>
@@ -12230,7 +12233,7 @@
         <v>246</v>
       </c>
       <c r="I100" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J100" s="48" t="s">
         <v>28</v>
@@ -12269,7 +12272,7 @@
         <v>246</v>
       </c>
       <c r="I101" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J101" s="48" t="s">
         <v>28</v>
@@ -12308,7 +12311,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J102" s="48" t="s">
         <v>28</v>
@@ -12347,7 +12350,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J103" s="48" t="s">
         <v>28</v>
@@ -12386,7 +12389,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J104" s="48" t="s">
         <v>28</v>
@@ -12425,7 +12428,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J105" s="48" t="s">
         <v>28</v>
@@ -12464,7 +12467,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J106" s="48" t="s">
         <v>28</v>
@@ -12503,7 +12506,7 @@
         <v>246</v>
       </c>
       <c r="I107" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J107" s="48" t="s">
         <v>28</v>
@@ -12542,7 +12545,7 @@
         <v>246</v>
       </c>
       <c r="I108" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J108" s="48" t="s">
         <v>28</v>
@@ -12612,7 +12615,7 @@
         <v>246</v>
       </c>
       <c r="I110" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J110" s="48" t="s">
         <v>28</v>
@@ -12651,7 +12654,7 @@
         <v>246</v>
       </c>
       <c r="I111" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J111" s="48" t="s">
         <v>28</v>
@@ -12690,7 +12693,7 @@
         <v>246</v>
       </c>
       <c r="I112" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J112" s="48" t="s">
         <v>28</v>
@@ -12729,7 +12732,7 @@
         <v>246</v>
       </c>
       <c r="I113" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J113" s="48" t="s">
         <v>28</v>
@@ -12768,7 +12771,7 @@
         <v>246</v>
       </c>
       <c r="I114" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J114" s="48" t="s">
         <v>28</v>
@@ -12807,7 +12810,7 @@
         <v>246</v>
       </c>
       <c r="I115" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J115" s="48" t="s">
         <v>28</v>
@@ -12846,7 +12849,7 @@
         <v>246</v>
       </c>
       <c r="I116" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J116" s="48" t="s">
         <v>28</v>
@@ -12885,7 +12888,7 @@
         <v>246</v>
       </c>
       <c r="I117" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J117" s="48" t="s">
         <v>28</v>
@@ -12924,7 +12927,7 @@
         <v>246</v>
       </c>
       <c r="I118" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J118" s="48" t="s">
         <v>28</v>
@@ -12963,7 +12966,7 @@
         <v>246</v>
       </c>
       <c r="I119" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J119" s="48" t="s">
         <v>28</v>
@@ -13033,7 +13036,7 @@
         <v>246</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J121" s="48" t="s">
         <v>28</v>
@@ -13072,7 +13075,7 @@
         <v>246</v>
       </c>
       <c r="I122" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J122" s="48" t="s">
         <v>28</v>
@@ -13111,7 +13114,7 @@
         <v>246</v>
       </c>
       <c r="I123" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J123" s="48" t="s">
         <v>28</v>
@@ -13150,7 +13153,7 @@
         <v>246</v>
       </c>
       <c r="I124" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J124" s="48" t="s">
         <v>28</v>
@@ -13189,7 +13192,7 @@
         <v>246</v>
       </c>
       <c r="I125" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J125" s="48" t="s">
         <v>28</v>
@@ -13228,7 +13231,7 @@
         <v>246</v>
       </c>
       <c r="I126" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J126" s="48" t="s">
         <v>28</v>
@@ -13267,7 +13270,7 @@
         <v>246</v>
       </c>
       <c r="I127" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J127" s="48" t="s">
         <v>28</v>
@@ -13306,7 +13309,7 @@
         <v>246</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J128" s="48" t="s">
         <v>28</v>
@@ -13345,7 +13348,7 @@
         <v>246</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J129" s="48" t="s">
         <v>28</v>
@@ -13384,7 +13387,7 @@
         <v>246</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J130" s="48" t="s">
         <v>28</v>
@@ -13423,7 +13426,7 @@
         <v>246</v>
       </c>
       <c r="I131" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J131" s="48" t="s">
         <v>28</v>
@@ -13462,7 +13465,7 @@
         <v>246</v>
       </c>
       <c r="I132" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J132" s="48" t="s">
         <v>28</v>
@@ -13501,7 +13504,7 @@
         <v>246</v>
       </c>
       <c r="I133" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J133" s="48" t="s">
         <v>28</v>
@@ -13540,7 +13543,7 @@
         <v>246</v>
       </c>
       <c r="I134" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J134" s="48" t="s">
         <v>28</v>
@@ -13610,7 +13613,7 @@
         <v>246</v>
       </c>
       <c r="I136" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J136" s="48" t="s">
         <v>28</v>
@@ -13680,7 +13683,7 @@
         <v>246</v>
       </c>
       <c r="I138" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J138" s="48" t="s">
         <v>28</v>
@@ -13719,7 +13722,7 @@
         <v>246</v>
       </c>
       <c r="I139" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J139" s="48" t="s">
         <v>28</v>
@@ -13758,7 +13761,7 @@
         <v>246</v>
       </c>
       <c r="I140" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J140" s="48" t="s">
         <v>28</v>
@@ -13797,7 +13800,7 @@
         <v>246</v>
       </c>
       <c r="I141" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J141" s="48" t="s">
         <v>28</v>
@@ -13836,7 +13839,7 @@
         <v>246</v>
       </c>
       <c r="I142" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J142" s="48" t="s">
         <v>28</v>
@@ -13875,7 +13878,7 @@
         <v>246</v>
       </c>
       <c r="I143" s="38" t="s">
-        <v>15</v>
+        <v>953</v>
       </c>
       <c r="J143" s="48" t="s">
         <v>28</v>
